--- a/data_year/zb/国民经济核算/国际收支平衡表/借方/借方储备资产.xlsx
+++ b/data_year/zb/国民经济核算/国际收支平衡表/借方/借方储备资产.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,23 +468,23 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1112840</v>
+        <v>47173902.7211056</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>17300</v>
+        <v>207558.403384</v>
       </c>
       <c r="E2" t="n">
-        <v>1089840</v>
+        <v>46955634</v>
       </c>
       <c r="F2" t="n">
-        <v>5700</v>
+        <v>10710.3177216</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -493,23 +493,23 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4732512.97227289</v>
+        <v>38881789.0467064</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>71725.92439946601</v>
+        <v>400031.046706402</v>
       </c>
       <c r="E3" t="n">
-        <v>4659104</v>
+        <v>38481758</v>
       </c>
       <c r="F3" t="n">
-        <v>5370.6</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -518,23 +518,23 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7569131.95212658</v>
+        <v>11010259.79406</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>130600</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>7424215</v>
+        <v>10991331</v>
       </c>
       <c r="F4" t="n">
-        <v>14316.952126572</v>
+        <v>18928.79406</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -543,23 +543,23 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10641430.6</v>
+        <v>43269968.6863</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>27400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>10596930.6</v>
+        <v>43269605</v>
       </c>
       <c r="F5" t="n">
-        <v>17100</v>
+        <v>363.686299999911</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -568,273 +568,23 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19054700</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
+        <v>14900802.1301453</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>900.000000000058</v>
+        <v>35736.739801632</v>
       </c>
       <c r="E6" t="n">
-        <v>19037700</v>
+        <v>14857249</v>
       </c>
       <c r="F6" t="n">
-        <v>16100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>25259289.7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>25257289.7</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1999.99999999999</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>28542243.6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>28526743.6</v>
-      </c>
-      <c r="F8" t="n">
-        <v>15500</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>46118318.55168</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>20896.07193</v>
-      </c>
-      <c r="E9" t="n">
-        <v>46086510</v>
-      </c>
-      <c r="F9" t="n">
-        <v>10912.47975</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>47964407.48127</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>123599.87622</v>
-      </c>
-      <c r="E10" t="n">
-        <v>47834166</v>
-      </c>
-      <c r="F10" t="n">
-        <v>6641.60505</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>40048518.9786937</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>244031.88602</v>
-      </c>
-      <c r="E11" t="n">
-        <v>38205148</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1111776.4779</v>
-      </c>
-      <c r="G11" t="n">
-        <v>487562.614773669</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>47173902.7211056</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>207558.403384</v>
-      </c>
-      <c r="E12" t="n">
-        <v>46955634</v>
-      </c>
-      <c r="F12" t="n">
-        <v>10710.3177216</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>38881789.0467064</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>400031.046706402</v>
-      </c>
-      <c r="E13" t="n">
-        <v>38481758</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>11010259.79406</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>10991331</v>
-      </c>
-      <c r="F14" t="n">
-        <v>18928.79406</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>43269968.6863</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>43269605</v>
-      </c>
-      <c r="F15" t="n">
-        <v>363.686299999911</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>14900802.1301453</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>35736.739801632</v>
-      </c>
-      <c r="E16" t="n">
-        <v>14857249</v>
-      </c>
-      <c r="F16" t="n">
         <v>7816.39034369586</v>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
